--- a/p7_p8_p124_pnames2_goarchive.xlsx
+++ b/p7_p8_p124_pnames2_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_6</t>
+    <t>name_7</t>
   </si>
   <si>
     <t>jjj</t>
